--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -31,7 +31,7 @@
     <t>MSuite49win10chrome_teacher04</t>
   </si>
   <si>
-    <t>testing123$</t>
+    <t>U2FsdGVkX18yfjLO6h90476D0vJgs5VzTunWdRnHut8=</t>
   </si>
   <si>
     <t>tc020RLZ33166</t>
@@ -135,13 +135,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -201,10 +207,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -212,14 +218,20 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,15 +553,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="58.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="68.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="68.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +575,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -575,9 +587,9 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="F2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -589,9 +601,9 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="F3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -603,9 +615,9 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="F4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -617,9 +629,9 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="F5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -631,9 +643,9 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="F6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -645,9 +657,9 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="F7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -659,9 +671,9 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="F8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -673,9 +685,9 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="F9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -687,9 +699,9 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="F10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -701,9 +713,9 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="F11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -715,9 +727,9 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="F12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -729,9 +741,9 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="F13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -743,9 +755,9 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="F14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -757,7 +769,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
@@ -771,7 +783,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
@@ -785,7 +797,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
@@ -799,7 +811,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16">
       <c r="A19" s="5" t="s">
@@ -813,1382 +825,1382 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16">
+      <c r="F19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A29" s="4"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A39" s="4"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A46" s="4"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A57" s="4"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A58" s="4"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A59" s="4"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A60" s="4"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A61" s="4"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A62" s="4"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A63" s="4"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A65" s="4"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A68" s="4"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A70" s="4"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A72" s="4"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A73" s="4"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A75" s="4"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A76" s="4"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A77" s="4"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A78" s="4"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A79" s="4"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A81" s="4"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A82" s="4"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A83" s="4"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A84" s="4"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A85" s="4"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A86" s="4"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A87" s="4"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A88" s="4"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A89" s="4"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A90" s="4"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A91" s="4"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A92" s="4"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A93" s="4"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A94" s="4"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A95" s="4"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A96" s="4"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A97" s="4"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A98" s="4"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A99" s="4"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A100" s="4"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A101" s="4"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A102" s="4"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A103" s="4"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A104" s="4"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A105" s="4"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A106" s="4"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A107" s="4"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A108" s="4"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A109" s="4"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A110" s="4"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A111" s="4"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A112" s="4"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A113" s="4"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A114" s="4"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A115" s="4"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A116" s="4"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A117" s="4"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A118" s="4"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A119" s="4"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A120" s="4"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A121" s="4"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A122" s="4"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A123" s="4"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A124" s="4"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A125" s="4"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A126" s="4"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A127" s="4"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A128" s="4"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A129" s="4"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A130" s="4"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A131" s="4"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A132" s="4"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A133" s="4"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A134" s="4"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A135" s="4"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A136" s="4"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A137" s="4"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A138" s="4"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A139" s="4"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A140" s="4"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A141" s="4"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A142" s="4"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A143" s="4"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
       <c r="F143" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A144" s="4"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
       <c r="F144" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A145" s="4"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A146" s="4"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A147" s="4"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A148" s="4"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A149" s="4"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
       <c r="F149" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A150" s="4"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A151" s="4"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A152" s="4"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
       <c r="F152" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A153" s="4"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A154" s="4"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
       <c r="F154" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A155" s="4"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A156" s="4"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A157" s="4"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
       <c r="F157" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A158" s="4"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A159" s="4"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A160" s="4"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A161" s="4"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
       <c r="F161" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A162" s="4"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A163" s="4"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
       <c r="F163" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A164" s="4"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
       <c r="F164" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A165" s="4"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
       <c r="F165" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A166" s="4"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
       <c r="F166" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A167" s="4"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
       <c r="F167" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A168" s="4"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A169" s="4"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
       <c r="F169" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A170" s="4"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
       <c r="F170" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A171" s="4"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
       <c r="F171" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A172" s="4"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
       <c r="F172" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A173" s="4"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
       <c r="F173" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A174" s="4"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
       <c r="F174" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A175" s="4"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
       <c r="F175" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A176" s="4"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A177" s="4"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A178" s="4"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A179" s="4"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
       <c r="F179" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A180" s="4"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
       <c r="F180" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A181" s="4"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
       <c r="F181" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A182" s="4"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
       <c r="F182" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A183" s="4"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
       <c r="F183" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A184" s="4"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
       <c r="F184" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A185" s="4"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
       <c r="F185" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A186" s="4"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
       <c r="F186" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A187" s="4"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A188" s="4"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
       <c r="F188" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A189" s="4"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A190" s="4"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
       <c r="F190" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="16" customFormat="1" s="7">
       <c r="A191" s="4"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
       <c r="F191" s="4"/>
     </row>
   </sheetData>
